--- a/Simulation practice/2021 APMCM C/Initial Data/2021亚太杯数据1.xlsx
+++ b/Simulation practice/2021 APMCM C/Initial Data/2021亚太杯数据1.xlsx
@@ -19,12 +19,6 @@
     <t>年份</t>
   </si>
   <si>
-    <t>旅游收入/亿</t>
-  </si>
-  <si>
-    <t>旅游人次/万人</t>
-  </si>
-  <si>
     <t>自然保护区面积(万公顷)</t>
   </si>
   <si>
@@ -43,7 +37,13 @@
     <t>地表水供水总量(亿立方米)</t>
   </si>
   <si>
+    <t>地表水水质达标率/%</t>
+  </si>
+  <si>
     <t>空气质量优良天数</t>
+  </si>
+  <si>
+    <t>市区PM2.5浓度/微克每立方米</t>
   </si>
 </sst>
 </file>
@@ -51,12 +51,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,18 +73,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -93,19 +136,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -115,7 +182,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,94 +211,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,12 +236,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -249,6 +248,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -261,19 +302,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,151 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +445,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,17 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,17 +493,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,7 +506,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,18 +537,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,10 +553,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,160 +565,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,69 +1036,68 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="19.5462962962963" customWidth="1"/>
-    <col min="5" max="5" width="13.8148148148148" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.6759259259259" customWidth="1"/>
-    <col min="8" max="8" width="12.6296296296296"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="19.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="13.8148148148148" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.6759259259259" customWidth="1"/>
+    <col min="6" max="6" width="12.6296296296296"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="28.8" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2000</v>
       </c>
-      <c r="H2">
+      <c r="F2">
         <v>5647.897629</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="G3">
+      <c r="E3">
         <v>5485.6</v>
       </c>
-      <c r="H3">
+      <c r="F3">
         <v>4943.257545</v>
       </c>
     </row>
@@ -1107,37 +1105,37 @@
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4">
-        <v>18.7</v>
-      </c>
-      <c r="C4">
-        <v>486.7</v>
-      </c>
-      <c r="G4">
+      <c r="E4">
         <v>5642.9</v>
       </c>
+      <c r="F4">
+        <v>9679.377</v>
+      </c>
       <c r="H4">
-        <v>9679.377</v>
+        <v>54</v>
+      </c>
+      <c r="I4">
+        <v>198</v>
       </c>
       <c r="J4">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5">
-        <v>17.3</v>
-      </c>
-      <c r="C5">
-        <v>418.4</v>
-      </c>
-      <c r="G5">
+      <c r="E5">
         <v>5791.68</v>
       </c>
+      <c r="F5">
+        <v>13328.395</v>
+      </c>
       <c r="H5">
-        <v>13328.395</v>
+        <v>56</v>
+      </c>
+      <c r="J5">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1145,31 +1143,31 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>23.3</v>
+        <v>47.1</v>
       </c>
       <c r="C6">
-        <v>552</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>47.1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>87</v>
+        <v>22.3</v>
+      </c>
+      <c r="E6">
+        <v>5876.49</v>
       </c>
       <c r="F6">
-        <v>22.3</v>
+        <v>11896.96</v>
       </c>
       <c r="G6">
-        <v>5876.49</v>
+        <v>37.6</v>
       </c>
       <c r="H6">
-        <v>11896.96</v>
-      </c>
-      <c r="I6" s="5">
-        <v>37.6</v>
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>227</v>
       </c>
       <c r="J6">
-        <v>227</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1177,31 +1175,31 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>31.5</v>
+        <v>56.5</v>
       </c>
       <c r="C7">
-        <v>671.8</v>
+        <v>84.5</v>
       </c>
       <c r="D7">
-        <v>56.5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>84.5</v>
+        <v>22.3</v>
+      </c>
+      <c r="E7">
+        <v>5981.19</v>
       </c>
       <c r="F7">
-        <v>22.3</v>
+        <v>11797.526</v>
       </c>
       <c r="G7">
-        <v>5981.19</v>
+        <v>38.5</v>
       </c>
       <c r="H7">
-        <v>11797.526</v>
-      </c>
-      <c r="I7" s="5">
-        <v>38.5</v>
+        <v>60</v>
+      </c>
+      <c r="I7">
+        <v>256</v>
       </c>
       <c r="J7">
-        <v>256</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1209,31 +1207,31 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>40.5</v>
+        <v>59.7</v>
       </c>
       <c r="C8">
-        <v>777.6</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>59.7</v>
-      </c>
-      <c r="E8" s="5">
-        <v>81</v>
+        <v>22.3</v>
+      </c>
+      <c r="E8">
+        <v>6076.18</v>
       </c>
       <c r="F8">
-        <v>22.3</v>
+        <v>10346.371</v>
       </c>
       <c r="G8">
-        <v>6076.18</v>
+        <v>38.7</v>
       </c>
       <c r="H8">
-        <v>10346.371</v>
-      </c>
-      <c r="I8" s="5">
-        <v>38.7</v>
+        <v>62</v>
+      </c>
+      <c r="I8">
+        <v>277</v>
       </c>
       <c r="J8">
-        <v>277</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1241,31 +1239,31 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>47.2</v>
+        <v>56.6</v>
       </c>
       <c r="C9">
-        <v>823.1</v>
+        <v>90.8</v>
       </c>
       <c r="D9">
-        <v>56.6</v>
-      </c>
-      <c r="E9" s="5">
-        <v>90.8</v>
+        <v>22.3</v>
+      </c>
+      <c r="E9">
+        <v>6133.66</v>
       </c>
       <c r="F9">
-        <v>22.3</v>
+        <v>11710.468</v>
       </c>
       <c r="G9">
-        <v>6133.66</v>
+        <v>38.9</v>
       </c>
       <c r="H9">
-        <v>11710.468</v>
-      </c>
-      <c r="I9" s="5">
-        <v>38.9</v>
+        <v>64</v>
+      </c>
+      <c r="I9">
+        <v>306</v>
       </c>
       <c r="J9">
-        <v>306</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1273,31 +1271,31 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>50.6</v>
+        <v>56.7</v>
       </c>
       <c r="C10">
-        <v>754.6</v>
+        <v>95.8</v>
       </c>
       <c r="D10">
-        <v>56.7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>95.8</v>
+        <v>22.3</v>
+      </c>
+      <c r="E10">
+        <v>6194.03</v>
       </c>
       <c r="F10">
-        <v>22.3</v>
+        <v>12632.31</v>
       </c>
       <c r="G10">
-        <v>6194.03</v>
+        <v>37.8</v>
       </c>
       <c r="H10">
-        <v>12632.31</v>
-      </c>
-      <c r="I10" s="5">
-        <v>37.8</v>
+        <v>72</v>
+      </c>
+      <c r="I10">
+        <v>320</v>
       </c>
       <c r="J10">
-        <v>320</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1305,31 +1303,31 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>72.2</v>
+        <v>57.2</v>
       </c>
       <c r="C11">
-        <v>1080.9</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>57.2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>100</v>
+        <v>23.4</v>
+      </c>
+      <c r="E11">
+        <v>6230.72</v>
       </c>
       <c r="F11">
-        <v>23.4</v>
+        <v>11603.944</v>
       </c>
       <c r="G11">
-        <v>6230.72</v>
+        <v>37.5</v>
       </c>
       <c r="H11">
-        <v>11603.944</v>
-      </c>
-      <c r="I11" s="5">
-        <v>37.5</v>
+        <v>75</v>
+      </c>
+      <c r="I11">
+        <v>334</v>
       </c>
       <c r="J11">
-        <v>334</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1337,31 +1335,31 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>91.45</v>
+        <v>58.7</v>
       </c>
       <c r="C12">
-        <v>1307.9</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>58.7</v>
-      </c>
-      <c r="E12" s="5">
-        <v>100</v>
+        <v>23.4</v>
+      </c>
+      <c r="E12">
+        <v>6290.3</v>
       </c>
       <c r="F12">
-        <v>23.4</v>
+        <v>11717.1223</v>
       </c>
       <c r="G12">
-        <v>6290.3</v>
+        <v>36.1</v>
       </c>
       <c r="H12">
-        <v>11717.1223</v>
-      </c>
-      <c r="I12" s="5">
-        <v>36.1</v>
+        <v>78.3</v>
+      </c>
+      <c r="I12">
+        <v>337</v>
       </c>
       <c r="J12">
-        <v>337</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1369,31 +1367,31 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>126</v>
+        <v>58.7</v>
       </c>
       <c r="C13">
-        <v>1698.8</v>
+        <v>82.7</v>
       </c>
       <c r="D13">
-        <v>58.7</v>
-      </c>
-      <c r="E13" s="5">
-        <v>82.7</v>
+        <v>23.4</v>
+      </c>
+      <c r="E13">
+        <v>6351.47</v>
       </c>
       <c r="F13">
-        <v>23.4</v>
+        <v>14352.918</v>
       </c>
       <c r="G13">
-        <v>6351.47</v>
+        <v>38.5</v>
       </c>
       <c r="H13">
-        <v>14352.918</v>
-      </c>
-      <c r="I13" s="5">
-        <v>38.5</v>
+        <v>84.6</v>
+      </c>
+      <c r="I13">
+        <v>339</v>
       </c>
       <c r="J13">
-        <v>339</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1401,31 +1399,31 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>162</v>
+        <v>69.3</v>
       </c>
       <c r="C14">
-        <v>2010</v>
+        <v>77.7</v>
       </c>
       <c r="D14">
-        <v>69.3</v>
-      </c>
-      <c r="E14" s="5">
-        <v>77.7</v>
+        <v>23.4</v>
+      </c>
+      <c r="E14">
+        <v>6411.51</v>
       </c>
       <c r="F14">
-        <v>23.4</v>
+        <v>11959.225</v>
       </c>
       <c r="G14">
-        <v>6411.51</v>
+        <v>41.3</v>
       </c>
       <c r="H14">
-        <v>11959.225</v>
-      </c>
-      <c r="I14" s="5">
-        <v>41.3</v>
+        <v>56</v>
+      </c>
+      <c r="I14">
+        <v>340</v>
       </c>
       <c r="J14">
-        <v>340</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1433,31 +1431,31 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>204</v>
+        <v>70.7</v>
       </c>
       <c r="C15">
-        <v>2463.4</v>
+        <v>81.8</v>
       </c>
       <c r="D15">
-        <v>70.7</v>
-      </c>
-      <c r="E15" s="5">
-        <v>81.8</v>
+        <v>23.4</v>
+      </c>
+      <c r="E15">
+        <v>4679.05</v>
       </c>
       <c r="F15">
-        <v>23.4</v>
+        <v>10420.9472</v>
       </c>
       <c r="G15">
-        <v>4679.05</v>
+        <v>43.1</v>
       </c>
       <c r="H15">
-        <v>10420.9472</v>
-      </c>
-      <c r="I15" s="5">
-        <v>43.1</v>
+        <v>68</v>
+      </c>
+      <c r="I15">
+        <v>265</v>
       </c>
       <c r="J15">
-        <v>265</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1465,31 +1463,31 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>265</v>
+        <v>70.5</v>
       </c>
       <c r="C16">
-        <v>2931.6</v>
+        <v>83.9</v>
       </c>
       <c r="D16">
-        <v>70.5</v>
-      </c>
-      <c r="E16" s="5">
-        <v>83.9</v>
+        <v>26.8</v>
+      </c>
+      <c r="E16">
+        <v>4826.45</v>
       </c>
       <c r="F16">
-        <v>26.8</v>
+        <v>12149.522</v>
       </c>
       <c r="G16">
-        <v>4826.45</v>
+        <v>46.8</v>
       </c>
       <c r="H16">
-        <v>12149.522</v>
-      </c>
-      <c r="I16" s="5">
-        <v>46.8</v>
+        <v>84</v>
+      </c>
+      <c r="I16">
+        <v>242</v>
       </c>
       <c r="J16">
-        <v>242</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1497,31 +1495,31 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>338.2</v>
+        <v>70</v>
       </c>
       <c r="C17">
-        <v>3349.63</v>
+        <v>78.5</v>
       </c>
       <c r="D17">
-        <v>70</v>
-      </c>
-      <c r="E17" s="5">
-        <v>78.5</v>
+        <v>26.8</v>
+      </c>
+      <c r="E17">
+        <v>5061.55</v>
       </c>
       <c r="F17">
-        <v>26.8</v>
+        <v>14254.077</v>
       </c>
       <c r="G17">
-        <v>5061.55</v>
+        <v>48.7</v>
       </c>
       <c r="H17">
-        <v>14254.077</v>
-      </c>
-      <c r="I17" s="5">
-        <v>48.7</v>
+        <v>88</v>
+      </c>
+      <c r="I17">
+        <v>269</v>
       </c>
       <c r="J17">
-        <v>269</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1529,31 +1527,31 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>495</v>
+        <v>71</v>
       </c>
       <c r="C18">
-        <v>4636.6</v>
+        <v>90.7</v>
       </c>
       <c r="D18">
-        <v>71</v>
-      </c>
-      <c r="E18" s="5">
-        <v>90.7</v>
+        <v>26.8</v>
+      </c>
+      <c r="E18">
+        <v>5187.9</v>
       </c>
       <c r="F18">
-        <v>26.8</v>
+        <v>11917.6586</v>
       </c>
       <c r="G18">
-        <v>5187.9</v>
+        <v>51.5</v>
       </c>
       <c r="H18">
-        <v>11917.6586</v>
-      </c>
-      <c r="I18" s="5">
-        <v>51.5</v>
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>275</v>
       </c>
       <c r="J18">
-        <v>275</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1561,109 +1559,109 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>671</v>
+        <v>70.9</v>
       </c>
       <c r="C19">
-        <v>5796.6</v>
+        <v>94.5</v>
       </c>
       <c r="D19">
-        <v>70.9</v>
-      </c>
-      <c r="E19" s="5">
-        <v>94.5</v>
+        <v>26.8</v>
+      </c>
+      <c r="E19">
+        <v>5379.15</v>
       </c>
       <c r="F19">
-        <v>26.8</v>
+        <v>11984.3631</v>
       </c>
       <c r="G19">
-        <v>5379.15</v>
+        <v>59.4</v>
       </c>
       <c r="H19">
-        <v>11984.3631</v>
-      </c>
-      <c r="I19" s="5">
-        <v>59.4</v>
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>291</v>
       </c>
       <c r="J19">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B20">
-        <v>865.3</v>
-      </c>
       <c r="C20">
-        <v>7009.4</v>
-      </c>
-      <c r="E20" s="5">
         <v>94.1</v>
       </c>
+      <c r="D20">
+        <v>26.8</v>
+      </c>
+      <c r="E20">
+        <v>5532.54</v>
+      </c>
       <c r="F20">
-        <v>26.8</v>
+        <v>10743.0408</v>
       </c>
       <c r="G20">
-        <v>5532.54</v>
+        <v>70.4</v>
       </c>
       <c r="H20">
-        <v>10743.0408</v>
-      </c>
-      <c r="I20" s="5">
-        <v>70.4</v>
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
         <v>2019</v>
       </c>
-      <c r="B21">
-        <v>1055.67</v>
-      </c>
       <c r="C21">
-        <v>8271.09</v>
-      </c>
-      <c r="E21" s="5">
         <v>92.4</v>
       </c>
-      <c r="F21">
+      <c r="D21">
         <v>26.8</v>
       </c>
+      <c r="E21">
+        <v>5722.22</v>
+      </c>
       <c r="G21">
-        <v>5722.22</v>
-      </c>
-      <c r="I21" s="5">
         <v>78.3</v>
       </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>308</v>
+      </c>
       <c r="J21">
-        <v>308</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
         <v>2020</v>
       </c>
-      <c r="B22">
-        <v>300</v>
-      </c>
       <c r="C22">
-        <v>2800.1</v>
-      </c>
-      <c r="E22" s="5">
         <v>91.8</v>
       </c>
-      <c r="F22">
+      <c r="D22">
         <v>26.8</v>
       </c>
+      <c r="E22">
+        <v>5934.37</v>
+      </c>
       <c r="G22">
-        <v>5934.37</v>
-      </c>
-      <c r="I22" s="5">
         <v>84.8</v>
       </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>322</v>
+      </c>
       <c r="J22">
-        <v>322</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Simulation practice/2021 APMCM C/Initial Data/2021亚太杯数据1.xlsx
+++ b/Simulation practice/2021 APMCM C/Initial Data/2021亚太杯数据1.xlsx
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -84,6 +84,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,13 +98,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -105,46 +173,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +190,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -167,61 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +254,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -266,37 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,13 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,109 +410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +445,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,16 +490,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,15 +532,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -519,179 +545,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7962962962963" defaultRowHeight="14.4"/>
@@ -1044,9 +1044,10 @@
     <col min="2" max="2" width="19.5462962962963" customWidth="1"/>
     <col min="3" max="3" width="13.8148148148148" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11.6759259259259" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="12.6296296296296"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="14.7777777777778" customWidth="1"/>
     <col min="10" max="10" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
